--- a/Pickaboo TestCase & BugReport.xlsx
+++ b/Pickaboo TestCase & BugReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="258">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>Test Case Reviewed By</t>
-  </si>
-  <si>
-    <t>Ehsanul Alam Sabbir</t>
   </si>
   <si>
     <t>Performance (tested)</t>
@@ -6129,11 +6126,11 @@
       <c r="D4" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="79" t="s">
         <v>67</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>68</v>
       </c>
       <c r="G4" s="84" t="s">
         <v>64</v>
@@ -6143,7 +6140,7 @@
       <c r="J4" s="73"/>
       <c r="K4" s="74"/>
       <c r="L4" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="83">
         <f>COUNTIF(L7:L522, "Not Executed")</f>
@@ -6168,11 +6165,11 @@
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6183,7 +6180,7 @@
       <c r="J5" s="92"/>
       <c r="K5" s="93"/>
       <c r="L5" s="94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" s="95">
         <f>COUNTIF(L7:L522, "Out of Scope")</f>
@@ -6219,7 +6216,7 @@
       <c r="J6" s="73"/>
       <c r="K6" s="74"/>
       <c r="L6" s="102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M6" s="103">
         <f>SUM(M2:M5)</f>
@@ -6244,43 +6241,43 @@
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="C7" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="D7" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="E7" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="F7" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="G7" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="H7" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="I7" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="J7" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="K7" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="L7" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="111" t="s">
+      <c r="M7" s="111" t="s">
         <v>85</v>
-      </c>
-      <c r="M7" s="111" t="s">
-        <v>86</v>
       </c>
       <c r="N7" s="112"/>
       <c r="O7" s="112"/>
@@ -6307,30 +6304,30 @@
         <v>5</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="116" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="G8" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="118" t="s">
+      <c r="H8" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="119" t="s">
+      <c r="I8" s="120" t="s">
         <v>91</v>
-      </c>
-      <c r="I8" s="120" t="s">
-        <v>92</v>
       </c>
       <c r="J8" s="121"/>
       <c r="K8" s="122"/>
       <c r="L8" s="123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M8" s="124"/>
       <c r="N8" s="125"/>
@@ -6388,27 +6385,27 @@
       <c r="B10" s="138"/>
       <c r="C10" s="138"/>
       <c r="D10" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="F10" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="G10" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="140" t="s">
+      <c r="I10" s="120" t="s">
         <v>97</v>
-      </c>
-      <c r="I10" s="120" t="s">
-        <v>98</v>
       </c>
       <c r="J10" s="121"/>
       <c r="K10" s="141"/>
       <c r="L10" s="142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="143"/>
       <c r="N10" s="144"/>
@@ -6436,24 +6433,24 @@
       <c r="C11" s="138"/>
       <c r="D11" s="145"/>
       <c r="E11" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="118" t="s">
-        <v>100</v>
-      </c>
       <c r="G11" s="118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="120" t="s">
         <v>97</v>
-      </c>
-      <c r="I11" s="120" t="s">
-        <v>98</v>
       </c>
       <c r="J11" s="121"/>
       <c r="K11" s="141"/>
       <c r="L11" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M11" s="143"/>
       <c r="N11" s="144"/>
@@ -6481,24 +6478,24 @@
       <c r="C12" s="138"/>
       <c r="D12" s="147"/>
       <c r="E12" s="148" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="G12" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="120" t="s">
         <v>102</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="120" t="s">
-        <v>103</v>
       </c>
       <c r="J12" s="150"/>
       <c r="K12" s="151"/>
       <c r="L12" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M12" s="152"/>
       <c r="N12" s="152"/>
@@ -6526,24 +6523,24 @@
       <c r="C13" s="153"/>
       <c r="D13" s="154"/>
       <c r="E13" s="155" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="118" t="s">
+      <c r="G13" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="120" t="s">
         <v>105</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="120" t="s">
-        <v>106</v>
       </c>
       <c r="J13" s="150"/>
       <c r="K13" s="151"/>
       <c r="L13" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M13" s="152"/>
       <c r="N13" s="152"/>
@@ -6571,24 +6568,24 @@
       <c r="C14" s="153"/>
       <c r="D14" s="156"/>
       <c r="E14" s="155" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="G14" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="157" t="s">
         <v>108</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="157" t="s">
-        <v>109</v>
       </c>
       <c r="J14" s="150"/>
       <c r="K14" s="151"/>
       <c r="L14" s="142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M14" s="152"/>
       <c r="N14" s="152"/>
@@ -6616,24 +6613,24 @@
       <c r="C15" s="138"/>
       <c r="D15" s="158"/>
       <c r="E15" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="118" t="s">
+      <c r="G15" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="120" t="s">
         <v>111</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="120" t="s">
-        <v>112</v>
       </c>
       <c r="J15" s="150"/>
       <c r="K15" s="151"/>
       <c r="L15" s="142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
@@ -6661,24 +6658,24 @@
       <c r="C16" s="138"/>
       <c r="D16" s="158"/>
       <c r="E16" s="159" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="149" t="s">
+      <c r="G16" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="119" t="s">
+      <c r="I16" s="120" t="s">
         <v>115</v>
-      </c>
-      <c r="I16" s="120" t="s">
-        <v>116</v>
       </c>
       <c r="J16" s="150"/>
       <c r="K16" s="151"/>
       <c r="L16" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" s="152"/>
       <c r="N16" s="152"/>
@@ -6706,26 +6703,26 @@
       <c r="C17" s="138"/>
       <c r="D17" s="158"/>
       <c r="E17" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="149" t="s">
+      <c r="G17" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="119" t="s">
+      <c r="I17" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="120" t="s">
+      <c r="J17" s="160" t="s">
         <v>120</v>
-      </c>
-      <c r="J17" s="160" t="s">
-        <v>121</v>
       </c>
       <c r="K17" s="151"/>
       <c r="L17" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M17" s="152"/>
       <c r="N17" s="152"/>
@@ -6753,24 +6750,24 @@
       <c r="C18" s="138"/>
       <c r="D18" s="158"/>
       <c r="E18" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="149" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="119" t="s">
+      <c r="I18" s="120" t="s">
         <v>123</v>
-      </c>
-      <c r="I18" s="120" t="s">
-        <v>124</v>
       </c>
       <c r="J18" s="162"/>
       <c r="K18" s="151"/>
       <c r="L18" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M18" s="152"/>
       <c r="N18" s="152"/>
@@ -6798,24 +6795,24 @@
       <c r="C19" s="138"/>
       <c r="D19" s="158"/>
       <c r="E19" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="149" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="149" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="119" t="s">
-        <v>126</v>
-      </c>
       <c r="I19" s="163" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J19" s="162"/>
       <c r="K19" s="151"/>
       <c r="L19" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M19" s="152"/>
       <c r="N19" s="152"/>
@@ -6843,24 +6840,24 @@
       <c r="C20" s="138"/>
       <c r="D20" s="158"/>
       <c r="E20" s="159" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="149" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="149" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="119" t="s">
-        <v>128</v>
-      </c>
       <c r="I20" s="163" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J20" s="162"/>
       <c r="K20" s="151"/>
       <c r="L20" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M20" s="152"/>
       <c r="N20" s="152"/>
@@ -6888,24 +6885,24 @@
       <c r="C21" s="138"/>
       <c r="D21" s="158"/>
       <c r="E21" s="159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" s="163" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J21" s="162"/>
       <c r="K21" s="151"/>
       <c r="L21" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M21" s="152"/>
       <c r="N21" s="152"/>
@@ -6933,24 +6930,24 @@
       <c r="C22" s="138"/>
       <c r="D22" s="158"/>
       <c r="E22" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="149" t="s">
+      <c r="G22" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="163" t="s">
         <v>131</v>
-      </c>
-      <c r="G22" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="163" t="s">
-        <v>132</v>
       </c>
       <c r="J22" s="162"/>
       <c r="K22" s="151"/>
       <c r="L22" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M22" s="152"/>
       <c r="N22" s="152"/>
@@ -6978,24 +6975,24 @@
       <c r="C23" s="138"/>
       <c r="D23" s="158"/>
       <c r="E23" s="159" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="149" t="s">
+      <c r="G23" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="163" t="s">
         <v>134</v>
-      </c>
-      <c r="G23" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="163" t="s">
-        <v>135</v>
       </c>
       <c r="J23" s="162"/>
       <c r="K23" s="151"/>
       <c r="L23" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M23" s="152"/>
       <c r="N23" s="152"/>
@@ -7023,24 +7020,24 @@
       <c r="C24" s="138"/>
       <c r="D24" s="158"/>
       <c r="E24" s="159" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="149" t="s">
+      <c r="G24" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="163" t="s">
         <v>137</v>
-      </c>
-      <c r="G24" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="163" t="s">
-        <v>138</v>
       </c>
       <c r="J24" s="162"/>
       <c r="K24" s="151"/>
       <c r="L24" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M24" s="152"/>
       <c r="N24" s="152"/>
@@ -7066,24 +7063,24 @@
       <c r="C25" s="138"/>
       <c r="D25" s="158"/>
       <c r="E25" s="159" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="149" t="s">
+      <c r="G25" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="163" t="s">
         <v>140</v>
-      </c>
-      <c r="G25" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="163" t="s">
-        <v>141</v>
       </c>
       <c r="J25" s="162"/>
       <c r="K25" s="151"/>
       <c r="L25" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M25" s="152"/>
       <c r="N25" s="152"/>
@@ -7111,24 +7108,24 @@
       <c r="C26" s="138"/>
       <c r="D26" s="158"/>
       <c r="E26" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="149" t="s">
-        <v>143</v>
-      </c>
       <c r="G26" s="118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26" s="163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="162"/>
       <c r="K26" s="151"/>
       <c r="L26" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M26" s="152"/>
       <c r="N26" s="152"/>
@@ -7156,24 +7153,24 @@
       <c r="C27" s="138"/>
       <c r="D27" s="158"/>
       <c r="E27" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="149" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="163" t="s">
         <v>144</v>
-      </c>
-      <c r="F27" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="163" t="s">
-        <v>145</v>
       </c>
       <c r="J27" s="162"/>
       <c r="K27" s="151"/>
       <c r="L27" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M27" s="152"/>
       <c r="N27" s="152"/>
@@ -7201,24 +7198,24 @@
       <c r="C28" s="138"/>
       <c r="D28" s="158"/>
       <c r="E28" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="164" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="163" t="s">
         <v>146</v>
-      </c>
-      <c r="F28" s="164" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="163" t="s">
-        <v>147</v>
       </c>
       <c r="J28" s="162"/>
       <c r="K28" s="151"/>
       <c r="L28" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M28" s="152"/>
       <c r="N28" s="152"/>
@@ -7246,24 +7243,24 @@
       <c r="C29" s="138"/>
       <c r="D29" s="158"/>
       <c r="E29" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="149" t="s">
+      <c r="G29" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="163" t="s">
         <v>149</v>
-      </c>
-      <c r="G29" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="163" t="s">
-        <v>150</v>
       </c>
       <c r="J29" s="162"/>
       <c r="K29" s="151"/>
       <c r="L29" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M29" s="152"/>
       <c r="N29" s="152"/>
@@ -7291,24 +7288,24 @@
       <c r="C30" s="138"/>
       <c r="D30" s="158"/>
       <c r="E30" s="159" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="163" t="s">
         <v>151</v>
-      </c>
-      <c r="F30" s="149" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="163" t="s">
-        <v>152</v>
       </c>
       <c r="J30" s="162"/>
       <c r="K30" s="151"/>
       <c r="L30" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M30" s="152"/>
       <c r="N30" s="152"/>
@@ -7336,24 +7333,24 @@
       <c r="C31" s="138"/>
       <c r="D31" s="158"/>
       <c r="E31" s="159" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="149" t="s">
+      <c r="G31" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="163" t="s">
         <v>154</v>
-      </c>
-      <c r="G31" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="163" t="s">
-        <v>155</v>
       </c>
       <c r="J31" s="162"/>
       <c r="K31" s="151"/>
       <c r="L31" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M31" s="152"/>
       <c r="N31" s="152"/>
@@ -7379,24 +7376,24 @@
       <c r="C32" s="138"/>
       <c r="D32" s="158"/>
       <c r="E32" s="159" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="163" t="s">
         <v>156</v>
-      </c>
-      <c r="F32" s="149" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="163" t="s">
-        <v>157</v>
       </c>
       <c r="J32" s="162"/>
       <c r="K32" s="151"/>
       <c r="L32" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M32" s="152"/>
       <c r="N32" s="152"/>
@@ -7422,24 +7419,24 @@
       <c r="C33" s="138"/>
       <c r="D33" s="158"/>
       <c r="E33" s="159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="149" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="163" t="s">
         <v>140</v>
-      </c>
-      <c r="G33" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="163" t="s">
-        <v>141</v>
       </c>
       <c r="J33" s="162"/>
       <c r="K33" s="151"/>
       <c r="L33" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M33" s="152"/>
       <c r="N33" s="152"/>
@@ -7465,24 +7462,24 @@
       <c r="C34" s="138"/>
       <c r="D34" s="158"/>
       <c r="E34" s="159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" s="149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34" s="118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" s="163" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J34" s="162"/>
       <c r="K34" s="151"/>
       <c r="L34" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M34" s="152"/>
       <c r="N34" s="152"/>
@@ -7510,24 +7507,24 @@
       <c r="C35" s="138"/>
       <c r="D35" s="158"/>
       <c r="E35" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="149" t="s">
+      <c r="G35" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="163" t="s">
         <v>161</v>
-      </c>
-      <c r="G35" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="163" t="s">
-        <v>162</v>
       </c>
       <c r="J35" s="162"/>
       <c r="K35" s="151"/>
       <c r="L35" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M35" s="152"/>
       <c r="N35" s="152"/>
@@ -7562,7 +7559,7 @@
       <c r="J36" s="162"/>
       <c r="K36" s="151"/>
       <c r="L36" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="152"/>
       <c r="N36" s="152"/>
@@ -7622,27 +7619,27 @@
       <c r="B38" s="173"/>
       <c r="C38" s="173"/>
       <c r="D38" s="174" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="175" t="s">
+      <c r="F38" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="149" t="s">
+      <c r="G38" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="149" t="s">
         <v>165</v>
-      </c>
-      <c r="G38" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="149" t="s">
-        <v>166</v>
       </c>
       <c r="J38" s="176"/>
       <c r="K38" s="177"/>
       <c r="L38" s="178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M38" s="152"/>
       <c r="N38" s="152"/>
@@ -7670,24 +7667,24 @@
       <c r="C39" s="173"/>
       <c r="D39" s="179"/>
       <c r="E39" s="159" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="149" t="s">
+      <c r="G39" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="149" t="s">
         <v>168</v>
-      </c>
-      <c r="G39" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="149" t="s">
-        <v>169</v>
       </c>
       <c r="J39" s="176"/>
       <c r="K39" s="177"/>
       <c r="L39" s="161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M39" s="152"/>
       <c r="N39" s="152"/>
@@ -7715,24 +7712,24 @@
       <c r="C40" s="173"/>
       <c r="D40" s="180"/>
       <c r="E40" s="181" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="182" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="182" t="s">
+      <c r="G40" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="149" t="s">
         <v>171</v>
-      </c>
-      <c r="G40" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="149" t="s">
-        <v>172</v>
       </c>
       <c r="J40" s="183"/>
       <c r="K40" s="184"/>
       <c r="L40" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M40" s="186"/>
       <c r="N40" s="187"/>
@@ -7760,24 +7757,24 @@
       <c r="C41" s="173"/>
       <c r="D41" s="189"/>
       <c r="E41" s="181" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="149" t="s">
+      <c r="G41" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="149" t="s">
         <v>174</v>
-      </c>
-      <c r="G41" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="149" t="s">
-        <v>175</v>
       </c>
       <c r="J41" s="183"/>
       <c r="K41" s="184"/>
       <c r="L41" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M41" s="190"/>
       <c r="N41" s="187"/>
@@ -7803,26 +7800,26 @@
       <c r="C42" s="173"/>
       <c r="D42" s="189"/>
       <c r="E42" s="181" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="149" t="s">
+      <c r="G42" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="149" t="s">
+      <c r="J42" s="191" t="s">
         <v>178</v>
-      </c>
-      <c r="J42" s="191" t="s">
-        <v>179</v>
       </c>
       <c r="K42" s="184"/>
       <c r="L42" s="192" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M42" s="190"/>
       <c r="N42" s="187"/>
@@ -7850,24 +7847,24 @@
       <c r="C43" s="173"/>
       <c r="D43" s="189"/>
       <c r="E43" s="181" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="149" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="149" t="s">
+      <c r="G43" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="149" t="s">
         <v>182</v>
-      </c>
-      <c r="G43" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="149" t="s">
-        <v>183</v>
       </c>
       <c r="J43" s="193"/>
       <c r="K43" s="184"/>
       <c r="L43" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M43" s="190"/>
       <c r="N43" s="187"/>
@@ -7895,24 +7892,24 @@
       <c r="C44" s="173"/>
       <c r="D44" s="189"/>
       <c r="E44" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="149" t="s">
+      <c r="G44" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="149" t="s">
         <v>185</v>
-      </c>
-      <c r="G44" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="149" t="s">
-        <v>186</v>
       </c>
       <c r="J44" s="183"/>
       <c r="K44" s="184"/>
       <c r="L44" s="192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M44" s="190"/>
       <c r="N44" s="187"/>
@@ -7940,24 +7937,24 @@
       <c r="C45" s="196"/>
       <c r="D45" s="197"/>
       <c r="E45" s="198" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="199" t="s">
         <v>187</v>
       </c>
-      <c r="F45" s="199" t="s">
+      <c r="G45" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="149" t="s">
         <v>188</v>
-      </c>
-      <c r="G45" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H45" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="149" t="s">
-        <v>189</v>
       </c>
       <c r="J45" s="200"/>
       <c r="K45" s="201"/>
       <c r="L45" s="202" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M45" s="203"/>
       <c r="N45" s="204"/>
@@ -7985,24 +7982,24 @@
       <c r="C46" s="207"/>
       <c r="D46" s="208"/>
       <c r="E46" s="209" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="F46" s="149" t="s">
+      <c r="G46" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="149" t="s">
         <v>191</v>
-      </c>
-      <c r="G46" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="149" t="s">
-        <v>192</v>
       </c>
       <c r="J46" s="210"/>
       <c r="K46" s="184"/>
       <c r="L46" s="192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M46" s="190"/>
       <c r="N46" s="187"/>
@@ -8030,24 +8027,24 @@
       <c r="C47" s="212"/>
       <c r="D47" s="213"/>
       <c r="E47" s="214" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="215" t="s">
+      <c r="G47" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="149" t="s">
         <v>194</v>
-      </c>
-      <c r="G47" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="149" t="s">
-        <v>195</v>
       </c>
       <c r="J47" s="216"/>
       <c r="K47" s="217"/>
       <c r="L47" s="218" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M47" s="219"/>
       <c r="N47" s="220"/>
@@ -8073,24 +8070,24 @@
       <c r="C48" s="222"/>
       <c r="D48" s="189"/>
       <c r="E48" s="214" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F48" s="182" t="s">
+      <c r="G48" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="149" t="s">
         <v>197</v>
-      </c>
-      <c r="G48" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H48" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="149" t="s">
-        <v>198</v>
       </c>
       <c r="J48" s="193"/>
       <c r="K48" s="184"/>
       <c r="L48" s="223" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M48" s="224"/>
       <c r="N48" s="225"/>
@@ -8118,24 +8115,24 @@
       <c r="C49" s="138"/>
       <c r="D49" s="226"/>
       <c r="E49" s="181" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="149" t="s">
         <v>199</v>
       </c>
-      <c r="F49" s="149" t="s">
+      <c r="G49" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="149" t="s">
         <v>200</v>
-      </c>
-      <c r="G49" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H49" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" s="149" t="s">
-        <v>201</v>
       </c>
       <c r="J49" s="227"/>
       <c r="K49" s="228"/>
       <c r="L49" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M49" s="190"/>
       <c r="N49" s="187"/>
@@ -8163,24 +8160,24 @@
       <c r="C50" s="138"/>
       <c r="D50" s="226"/>
       <c r="E50" s="181" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="F50" s="149" t="s">
+      <c r="G50" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50" s="149" t="s">
         <v>203</v>
-      </c>
-      <c r="G50" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="149" t="s">
-        <v>204</v>
       </c>
       <c r="J50" s="229"/>
       <c r="K50" s="228"/>
       <c r="L50" s="192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M50" s="190"/>
       <c r="N50" s="187"/>
@@ -8208,24 +8205,24 @@
       <c r="C51" s="138"/>
       <c r="D51" s="226"/>
       <c r="E51" s="181" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="F51" s="149" t="s">
+      <c r="G51" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="149" t="s">
         <v>206</v>
-      </c>
-      <c r="G51" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H51" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" s="149" t="s">
-        <v>207</v>
       </c>
       <c r="J51" s="230"/>
       <c r="K51" s="228"/>
       <c r="L51" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M51" s="190"/>
       <c r="N51" s="187"/>
@@ -8253,24 +8250,24 @@
       <c r="C52" s="138"/>
       <c r="D52" s="226"/>
       <c r="E52" s="231" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="149" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="149" t="s">
+      <c r="G52" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52" s="149" t="s">
         <v>209</v>
-      </c>
-      <c r="G52" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H52" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="149" t="s">
-        <v>210</v>
       </c>
       <c r="J52" s="227"/>
       <c r="K52" s="228"/>
       <c r="L52" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M52" s="190"/>
       <c r="N52" s="187"/>
@@ -8298,24 +8295,24 @@
       <c r="C53" s="138"/>
       <c r="D53" s="226"/>
       <c r="E53" s="181" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" s="231" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="231" t="s">
+      <c r="G53" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53" s="149" t="s">
         <v>212</v>
-      </c>
-      <c r="G53" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="H53" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="149" t="s">
-        <v>213</v>
       </c>
       <c r="J53" s="230"/>
       <c r="K53" s="228"/>
       <c r="L53" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M53" s="190"/>
       <c r="N53" s="187"/>
@@ -8384,7 +8381,7 @@
       <c r="K55" s="232"/>
       <c r="L55" s="236"/>
       <c r="M55" s="238" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N55" s="187"/>
       <c r="O55" s="187"/>
@@ -13167,7 +13164,7 @@
       <c r="A208" s="372"/>
       <c r="B208" s="373"/>
       <c r="C208" s="374" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D208" s="375"/>
       <c r="E208" s="339"/>
@@ -14351,7 +14348,7 @@
       <c r="E246" s="381"/>
       <c r="F246" s="382"/>
       <c r="G246" s="382" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H246" s="383"/>
       <c r="I246" s="382"/>
@@ -27448,7 +27445,7 @@
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="B3" s="450" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
@@ -27468,16 +27465,16 @@
     </row>
     <row r="5" ht="44.25" customHeight="1">
       <c r="B5" s="452" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="453" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="453" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="453" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" ht="27.75" customHeight="1">
@@ -27486,13 +27483,13 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="456" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="457" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="457" t="s">
+      <c r="E6" s="455" t="s">
         <v>221</v>
-      </c>
-      <c r="E6" s="455" t="s">
-        <v>222</v>
       </c>
       <c r="F6" s="454"/>
       <c r="G6" s="454"/>
@@ -27522,13 +27519,13 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="458" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="459" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="459" t="s">
+      <c r="E7" s="455" t="s">
         <v>224</v>
-      </c>
-      <c r="E7" s="455" t="s">
-        <v>225</v>
       </c>
       <c r="F7" s="454"/>
       <c r="G7" s="454"/>
@@ -27558,13 +27555,13 @@
         <v>3.0</v>
       </c>
       <c r="C8" s="458" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="459" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="459" t="s">
+      <c r="E8" s="455" t="s">
         <v>227</v>
-      </c>
-      <c r="E8" s="455" t="s">
-        <v>228</v>
       </c>
       <c r="F8" s="460"/>
       <c r="G8" s="460"/>
@@ -27594,13 +27591,13 @@
         <v>4.0</v>
       </c>
       <c r="C9" s="458" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="459" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="459" t="s">
+      <c r="E9" s="455" t="s">
         <v>230</v>
-      </c>
-      <c r="E9" s="455" t="s">
-        <v>231</v>
       </c>
       <c r="F9" s="460"/>
       <c r="G9" s="460"/>
@@ -27630,13 +27627,13 @@
         <v>5.0</v>
       </c>
       <c r="C10" s="458" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="459" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="459" t="s">
-        <v>233</v>
-      </c>
       <c r="E10" s="455" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10" s="460"/>
       <c r="G10" s="460"/>
@@ -27666,13 +27663,13 @@
         <v>6.0</v>
       </c>
       <c r="C11" s="458" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="459" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="459" t="s">
+      <c r="E11" s="455" t="s">
         <v>235</v>
-      </c>
-      <c r="E11" s="455" t="s">
-        <v>236</v>
       </c>
       <c r="F11" s="460"/>
       <c r="G11" s="460"/>
@@ -27702,13 +27699,13 @@
         <v>7.0</v>
       </c>
       <c r="C12" s="458" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="459" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="459" t="s">
-        <v>238</v>
-      </c>
       <c r="E12" s="455" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="460"/>
       <c r="G12" s="460"/>
@@ -27738,13 +27735,13 @@
         <v>8.0</v>
       </c>
       <c r="C13" s="458" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="459" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="459" t="s">
-        <v>240</v>
-      </c>
       <c r="E13" s="455" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="460"/>
       <c r="G13" s="460"/>
@@ -27774,13 +27771,13 @@
         <v>9.0</v>
       </c>
       <c r="C14" s="458" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="459" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="459" t="s">
-        <v>242</v>
-      </c>
       <c r="E14" s="455" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F14" s="460"/>
       <c r="G14" s="460"/>
@@ -27810,13 +27807,13 @@
         <v>10.0</v>
       </c>
       <c r="C15" s="458" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="459" t="s">
         <v>243</v>
       </c>
-      <c r="D15" s="459" t="s">
-        <v>244</v>
-      </c>
       <c r="E15" s="455" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="460"/>
       <c r="G15" s="460"/>
@@ -27846,13 +27843,13 @@
         <v>11.0</v>
       </c>
       <c r="C16" s="458" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="459" t="s">
         <v>245</v>
       </c>
-      <c r="D16" s="459" t="s">
-        <v>246</v>
-      </c>
       <c r="E16" s="455" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F16" s="460"/>
       <c r="G16" s="460"/>
@@ -30893,7 +30890,7 @@
     <row r="2" ht="12.75" customHeight="1"/>
     <row r="3" ht="13.5" customHeight="1">
       <c r="B3" s="462" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="57"/>
     </row>
@@ -30911,7 +30908,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="B7" s="463" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="57"/>
     </row>
@@ -30921,7 +30918,7 @@
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="B9" s="466" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="26"/>
     </row>
@@ -30931,58 +30928,58 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="B11" s="467" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="468"/>
     </row>
     <row r="12" ht="95.25" customHeight="1">
       <c r="B12" s="469" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="470"/>
     </row>
     <row r="13" ht="27.0" customHeight="1">
       <c r="B13" s="471" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="470"/>
     </row>
     <row r="14" ht="27.0" customHeight="1">
       <c r="B14" s="471" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" s="470"/>
     </row>
     <row r="15" ht="27.0" customHeight="1">
       <c r="B15" s="471" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="470"/>
     </row>
     <row r="16" ht="27.0" customHeight="1">
       <c r="B16" s="471" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="470"/>
     </row>
     <row r="17" ht="27.0" customHeight="1">
       <c r="A17" s="472"/>
       <c r="B17" s="473" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="470"/>
     </row>
     <row r="18" ht="27.0" customHeight="1">
       <c r="A18" s="472"/>
       <c r="B18" s="474" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="475"/>
     </row>
     <row r="19" ht="27.0" customHeight="1">
       <c r="A19" s="472"/>
       <c r="B19" s="476" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="477"/>
     </row>
